--- a/biology/Zoologie/Antirrhea_taygetina/Antirrhea_taygetina.xlsx
+++ b/biology/Zoologie/Antirrhea_taygetina/Antirrhea_taygetina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhea taygetina est une espèce de lépidoptère de la famille des Nymphalidés et du genre Antirrhea.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antirrhea taygetina a été décrit par Arthur Gardiner Butler en 1868[1].
-Sous-espèces
-Antirrhea taygetina taygetina présent au Brésil.
-Antirrhea taygetina rodwayi Hall, 1939; présent en Guyana.
-Antirrhea taygetina ssp
-Antirrhea taygetina ssp; présent en Équateur[1].
-Nom vernaculaire
-Antirrhea taygetina se nomme Taygetina Brown Morpho en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea taygetina a été décrit par Arthur Gardiner Butler en 1868.
 </t>
         </is>
       </c>
@@ -546,14 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antirrhea taygetina est un grand papillon aux ailes antérieures à bord externe légèrement concave et aux ailes postérieures formant une pointe en n5. Le dessus est marron avec dans la partie postdiscale quelques taches rondes noires chez Antirrhea taygetina taygetina et chez Antirrhea taygetina rodwayi trois taches ovales foncées aux ailes antérieures et quatre taches ovales bleues aux ailes postérieures.
-Le revers est marron nacré avec ou non une discrète ligne de points blancs.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antirrhea taygetina taygetina présent au Brésil.
+Antirrhea taygetina rodwayi Hall, 1939; présent en Guyana.
+Antirrhea taygetina ssp
+Antirrhea taygetina ssp; présent en Équateur.</t>
         </is>
       </c>
     </row>
@@ -578,12 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea taygetina se nomme Taygetina Brown Morpho en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -608,15 +629,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea taygetina est un grand papillon aux ailes antérieures à bord externe légèrement concave et aux ailes postérieures formant une pointe en n5. Le dessus est marron avec dans la partie postdiscale quelques taches rondes noires chez Antirrhea taygetina taygetina et chez Antirrhea taygetina rodwayi trois taches ovales foncées aux ailes antérieures et quatre taches ovales bleues aux ailes postérieures.
+Le revers est marron nacré avec ou non une discrète ligne de points blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antirrhea_taygetina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_taygetina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antirrhea taygetina est présent en Équateur, au Brésil et en Guyana[1],[3].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antirrhea taygetina est présent en Équateur, au Brésil et en Guyana,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antirrhea_taygetina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea_taygetina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Antirrhea taygetina, sur Wikimedia CommonsAntirrhea taygetina, sur Wikispecies
 </t>
